--- a/stock_historical_data/1wk/ARTSONEN.BO.xlsx
+++ b/stock_historical_data/1wk/ARTSONEN.BO.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARTSONEN.BO.xlsx
+++ b/stock_historical_data/1wk/ARTSONEN.BO.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARTSONEN.BO.xlsx
+++ b/stock_historical_data/1wk/ARTSONEN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64705,6 +64705,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>192</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>197</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>183</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>48282</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>183</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>174.3000030517578</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>65280</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/ARTSONEN.BO.xlsx
+++ b/stock_historical_data/1wk/ARTSONEN.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -64749,7 +64749,7 @@
         <v>25</v>
       </c>
       <c r="O1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1148" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>2</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,477 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>187</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>195</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>178</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>185.8500061035156</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>58539</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>187.6999969482422</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>187.9499969482422</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>169.6000061035156</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>169.6999969482422</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>68367</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>169.6999969482422</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>196.3999938964844</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>194.5500030517578</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>114934</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>184.8500061035156</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>190</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>184.8500061035156</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>187.6499938964844</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>18127</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>195</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>178.3000030517578</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>178.3000030517578</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>2649</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>178.25</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>178.3000030517578</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>173.1999969482422</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>6352</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>170</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>171.4499969482422</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>165.6000061035156</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>167</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>3523</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>162</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>158.6499938964844</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>6426</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>164.9499969482422</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>165</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>150.8500061035156</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>158.6499938964844</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>34057</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ARTSONEN.BO.xlsx
+++ b/stock_historical_data/1wk/ARTSONEN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1158"/>
+  <dimension ref="A1:R1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4110,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -6350,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -7862,7 +7862,7 @@
         <v>2</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -8534,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="R144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="R151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -9374,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -9598,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="R163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -10158,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="R181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="R198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -12230,7 +12230,7 @@
         <v>2</v>
       </c>
       <c r="R210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="R220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -13182,7 +13182,7 @@
         <v>2</v>
       </c>
       <c r="R227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -13630,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="R235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -13798,7 +13798,7 @@
         <v>2</v>
       </c>
       <c r="R238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -14470,7 +14470,7 @@
         <v>2</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -14750,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="R255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -14974,7 +14974,7 @@
         <v>2</v>
       </c>
       <c r="R259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -15478,7 +15478,7 @@
         <v>2</v>
       </c>
       <c r="R268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -16150,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -16542,7 +16542,7 @@
         <v>1</v>
       </c>
       <c r="R287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -16990,7 +16990,7 @@
         <v>2</v>
       </c>
       <c r="R295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
       <c r="R299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -17550,7 +17550,7 @@
         <v>2</v>
       </c>
       <c r="R305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -17886,7 +17886,7 @@
         <v>2</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -19006,7 +19006,7 @@
         <v>2</v>
       </c>
       <c r="R331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -21134,7 +21134,7 @@
         <v>2</v>
       </c>
       <c r="R369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -22254,7 +22254,7 @@
         <v>2</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -22534,7 +22534,7 @@
         <v>1</v>
       </c>
       <c r="R394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -22982,7 +22982,7 @@
         <v>2</v>
       </c>
       <c r="R402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -23486,7 +23486,7 @@
         <v>1</v>
       </c>
       <c r="R411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -23598,7 +23598,7 @@
         <v>2</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -23990,7 +23990,7 @@
         <v>1</v>
       </c>
       <c r="R420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="R438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -26286,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="R461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -26510,7 +26510,7 @@
         <v>2</v>
       </c>
       <c r="R465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -27014,7 +27014,7 @@
         <v>1</v>
       </c>
       <c r="R474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -27350,7 +27350,7 @@
         <v>2</v>
       </c>
       <c r="R480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -28078,7 +28078,7 @@
         <v>2</v>
       </c>
       <c r="R493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -28638,7 +28638,7 @@
         <v>1</v>
       </c>
       <c r="R503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -29086,7 +29086,7 @@
         <v>2</v>
       </c>
       <c r="R511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -29534,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="R519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -29590,7 +29590,7 @@
         <v>2</v>
       </c>
       <c r="R520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -29646,7 +29646,7 @@
         <v>2</v>
       </c>
       <c r="R521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -30094,7 +30094,7 @@
         <v>1</v>
       </c>
       <c r="R529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -30542,7 +30542,7 @@
         <v>2</v>
       </c>
       <c r="R537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -30654,7 +30654,7 @@
         <v>1</v>
       </c>
       <c r="R539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -31326,7 +31326,7 @@
         <v>1</v>
       </c>
       <c r="R551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -32110,7 +32110,7 @@
         <v>1</v>
       </c>
       <c r="R565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -33006,7 +33006,7 @@
         <v>1</v>
       </c>
       <c r="R581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -33342,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="R587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -33566,7 +33566,7 @@
         <v>2</v>
       </c>
       <c r="R591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -33622,7 +33622,7 @@
         <v>2</v>
       </c>
       <c r="R592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -33790,7 +33790,7 @@
         <v>1</v>
       </c>
       <c r="R595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -34182,7 +34182,7 @@
         <v>1</v>
       </c>
       <c r="R602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -34350,7 +34350,7 @@
         <v>2</v>
       </c>
       <c r="R605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -34742,7 +34742,7 @@
         <v>1</v>
       </c>
       <c r="R612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -35134,7 +35134,7 @@
         <v>1</v>
       </c>
       <c r="R619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -35694,7 +35694,7 @@
         <v>2</v>
       </c>
       <c r="R629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -35974,7 +35974,7 @@
         <v>1</v>
       </c>
       <c r="R634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -36198,7 +36198,7 @@
         <v>2</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="R646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -38102,7 +38102,7 @@
         <v>1</v>
       </c>
       <c r="R672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -38718,7 +38718,7 @@
         <v>1</v>
       </c>
       <c r="R683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -39446,7 +39446,7 @@
         <v>1</v>
       </c>
       <c r="R696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -39782,7 +39782,7 @@
         <v>2</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -40286,7 +40286,7 @@
         <v>2</v>
       </c>
       <c r="R711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -40846,7 +40846,7 @@
         <v>1</v>
       </c>
       <c r="R721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -41574,7 +41574,7 @@
         <v>1</v>
       </c>
       <c r="R734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -41854,7 +41854,7 @@
         <v>2</v>
       </c>
       <c r="R739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="R744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -42750,7 +42750,7 @@
         <v>2</v>
       </c>
       <c r="R755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -43478,7 +43478,7 @@
         <v>2</v>
       </c>
       <c r="R768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769">
@@ -43982,7 +43982,7 @@
         <v>1</v>
       </c>
       <c r="R777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -44486,7 +44486,7 @@
         <v>1</v>
       </c>
       <c r="R786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -44878,7 +44878,7 @@
         <v>2</v>
       </c>
       <c r="R793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -45830,7 +45830,7 @@
         <v>1</v>
       </c>
       <c r="R810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -46222,7 +46222,7 @@
         <v>2</v>
       </c>
       <c r="R817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -46894,7 +46894,7 @@
         <v>1</v>
       </c>
       <c r="R829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -47454,7 +47454,7 @@
         <v>1</v>
       </c>
       <c r="R839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -47566,7 +47566,7 @@
         <v>2</v>
       </c>
       <c r="R841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -48014,7 +48014,7 @@
         <v>1</v>
       </c>
       <c r="R849" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -49526,7 +49526,7 @@
         <v>1</v>
       </c>
       <c r="R876" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
@@ -49694,7 +49694,7 @@
         <v>2</v>
       </c>
       <c r="R879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -50086,7 +50086,7 @@
         <v>1</v>
       </c>
       <c r="R886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="R893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
       <c r="R902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -51934,7 +51934,7 @@
         <v>1</v>
       </c>
       <c r="R919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="R925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -52718,7 +52718,7 @@
         <v>1</v>
       </c>
       <c r="R933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -52886,7 +52886,7 @@
         <v>2</v>
       </c>
       <c r="R936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937">
@@ -53446,7 +53446,7 @@
         <v>2</v>
       </c>
       <c r="R946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947">
@@ -53726,7 +53726,7 @@
         <v>1</v>
       </c>
       <c r="R951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -53950,7 +53950,7 @@
         <v>2</v>
       </c>
       <c r="R955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -54454,7 +54454,7 @@
         <v>1</v>
       </c>
       <c r="R964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -55070,7 +55070,7 @@
         <v>2</v>
       </c>
       <c r="R975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -55462,7 +55462,7 @@
         <v>2</v>
       </c>
       <c r="R982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983">
@@ -56470,7 +56470,7 @@
         <v>2</v>
       </c>
       <c r="R1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001">
@@ -57086,7 +57086,7 @@
         <v>1</v>
       </c>
       <c r="R1011" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -57758,7 +57758,7 @@
         <v>2</v>
       </c>
       <c r="R1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -58430,7 +58430,7 @@
         <v>1</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -58654,7 +58654,7 @@
         <v>2</v>
       </c>
       <c r="R1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -58934,7 +58934,7 @@
         <v>1</v>
       </c>
       <c r="R1044" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -59438,7 +59438,7 @@
         <v>1</v>
       </c>
       <c r="R1053" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -59998,7 +59998,7 @@
         <v>2</v>
       </c>
       <c r="R1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -61454,7 +61454,7 @@
         <v>1</v>
       </c>
       <c r="R1089" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090">
@@ -62574,7 +62574,7 @@
         <v>2</v>
       </c>
       <c r="R1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110">
@@ -62966,7 +62966,7 @@
         <v>2</v>
       </c>
       <c r="R1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -63246,7 +63246,7 @@
         <v>1</v>
       </c>
       <c r="R1121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -63414,7 +63414,7 @@
         <v>2</v>
       </c>
       <c r="R1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -64030,7 +64030,7 @@
         <v>1</v>
       </c>
       <c r="R1135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -64086,7 +64086,7 @@
         <v>2</v>
       </c>
       <c r="R1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -64478,7 +64478,7 @@
         <v>1</v>
       </c>
       <c r="R1143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -64758,7 +64758,7 @@
         <v>2</v>
       </c>
       <c r="R1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149">
@@ -64867,7 +64867,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64919,7 +64921,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64971,7 +64975,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65023,7 +65029,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65075,7 +65083,9 @@
       <c r="Q1154" t="n">
         <v>2</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65137,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65179,7 +65191,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65231,7 +65245,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65283,7 +65299,217 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>150.75</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>150.75</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>150.75</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>18732</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>144.1999969482422</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>165.1000061035156</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>143</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>145</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>26904</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>138.0500030517578</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>147</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>129.1000061035156</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>144</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>42292</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>137.0500030517578</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>135</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>50455</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
